--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2077781.462686565</v>
+        <v>-2080364.494756293</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>66.92785444135723</v>
+        <v>14.93663403485141</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.069212393384</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>61.36917500886961</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>63.36372471879532</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>128.5288064363907</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>322.3370915530056</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>33.45980153351376</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>240.0008816540113</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>283.1726726948052</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>292.5569378389522</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.190546984556</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>226.4933707980063</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>171.1529885179049</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>274.5831218595135</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>118.4312223122541</v>
+        <v>78.68827782033877</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>49.48749137895436</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>142.357521815827</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>42.54416032354808</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>35.56815683447326</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149756</v>
+        <v>171.0385136149752</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316662</v>
+        <v>158.4533545316658</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512507</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796075</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559696</v>
+        <v>136.6275814559692</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253072</v>
+        <v>156.7306717253068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.5012462792618</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160385</v>
+        <v>38.19450622702945</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.55206700895463</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346829</v>
+        <v>172.2328194346825</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603266</v>
+        <v>208.6119837603262</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222825</v>
+        <v>277.3910078222821</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568663</v>
+        <v>243.3441767568659</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696293</v>
+        <v>277.7295317696289</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220755</v>
+        <v>216.9161888220751</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>209.7911867851327</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.433183287319</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.470666346908</v>
+        <v>1236.639481552898</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.470666346908</v>
+        <v>878.3737829461477</v>
       </c>
       <c r="E2" t="n">
-        <v>884.6824137486633</v>
+        <v>492.5855303479034</v>
       </c>
       <c r="F2" t="n">
-        <v>473.6965089590558</v>
+        <v>81.59962555829591</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263131</v>
+        <v>2382.341170533243</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287319</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387307</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332751</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686059</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064733</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080112</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986285</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.5011820977088</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C4" t="n">
-        <v>128.5011820977088</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D4" t="n">
-        <v>128.5011820977088</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>128.5011820977088</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>128.5011820977088</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>128.5011820977088</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068854</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.966238459644</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>856.8832434759674</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>856.8832434759674</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>635.1166280454935</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5011820977088</v>
+        <v>635.1166280454935</v>
       </c>
       <c r="V4" t="n">
-        <v>128.5011820977088</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="W4" t="n">
-        <v>128.5011820977088</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="X4" t="n">
-        <v>128.5011820977088</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.5011820977088</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2106.031998942029</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4580,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2866.09759726723</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X5" t="n">
-        <v>2492.631839006151</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y5" t="n">
-        <v>2492.631839006151</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.4618728343356</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343356</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143257</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V7" t="n">
-        <v>678.4618728343356</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="W7" t="n">
-        <v>678.4618728343356</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="X7" t="n">
-        <v>678.4618728343356</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.4618728343356</v>
+        <v>246.5270825411072</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2230.937844028709</v>
+        <v>1528.069587875905</v>
       </c>
       <c r="C8" t="n">
-        <v>1861.975327088297</v>
+        <v>1159.107070935493</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>800.8413723287424</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>415.0531197304982</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>457.7221995722995</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>457.7221995722995</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>457.7221995722995</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V10" t="n">
-        <v>666.202517612298</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W10" t="n">
-        <v>437.4213349880492</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X10" t="n">
-        <v>437.4213349880492</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.6287558445192</v>
+        <v>639.3706644025392</v>
       </c>
     </row>
     <row r="11">
@@ -5039,22 +5039,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,19 +5121,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,19 +5200,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5230,19 +5230,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.624977674364</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1024.656698326753</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>803.8641191832229</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459581</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180512</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>599.6019060180512</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>599.6019060180512</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>452.7119585201409</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>285.5158592350208</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>143.8040280772187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1350.991564824961</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761978</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,40 +5759,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400714</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121646</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121646</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121646</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121646</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703112</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121649</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121649</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121649</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121649</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270448</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.6615923362598</v>
+        <v>721.6018753906316</v>
       </c>
       <c r="C28" t="n">
-        <v>743.6076988699303</v>
+        <v>561.5479819243026</v>
       </c>
       <c r="D28" t="n">
-        <v>602.3733489191721</v>
+        <v>561.5479819243026</v>
       </c>
       <c r="E28" t="n">
-        <v>463.3425447983565</v>
+        <v>561.5479819243026</v>
       </c>
       <c r="F28" t="n">
-        <v>325.3348867620234</v>
+        <v>423.5403238879703</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0210769384808</v>
+        <v>265.2265140644281</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384808</v>
+        <v>132.3969723682036</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795877</v>
+        <v>182.7582133795881</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064184</v>
+        <v>453.1530078064192</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836503</v>
+        <v>852.2571338836517</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515977</v>
+        <v>1282.972368515979</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077278</v>
+        <v>1709.08777207728</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687555</v>
+        <v>2087.322584687557</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162406</v>
+        <v>2388.703572162408</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790597</v>
+        <v>2516.6073387906</v>
       </c>
       <c r="R28" t="n">
-        <v>2486.756766054279</v>
+        <v>2516.6073387906</v>
       </c>
       <c r="S28" t="n">
-        <v>2312.784221170761</v>
+        <v>2342.634793907082</v>
       </c>
       <c r="T28" t="n">
-        <v>2102.065045655279</v>
+        <v>2131.915618391602</v>
       </c>
       <c r="U28" t="n">
-        <v>1821.872108461054</v>
+        <v>1851.722681197377</v>
       </c>
       <c r="V28" t="n">
-        <v>1576.069909716745</v>
+        <v>1605.920482453068</v>
       </c>
       <c r="W28" t="n">
-        <v>1295.535029141362</v>
+        <v>1325.385601877685</v>
       </c>
       <c r="X28" t="n">
-        <v>1076.427767704922</v>
+        <v>1106.278340441246</v>
       </c>
       <c r="Y28" t="n">
-        <v>1076.427767704922</v>
+        <v>894.3680507592933</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6616,13 +6616,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6640,16 +6640,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838286</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,7 +6971,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,10 +7603,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.33868158239</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>343.9938712120962</v>
+        <v>395.985091618602</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.98324540096848</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>25.568427951252</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>115.0314858713392</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>11.93987647707752</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>107.278433076783</v>
+        <v>147.0213775686984</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>31.77834493961117</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>137.2878198583892</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194203</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194166</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>181.837293492815</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.8220064512503</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796071</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792622</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>34.27786352457399</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.02971313420537</v>
+        <v>57.5817801431596</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1085835.225316874</v>
+        <v>1085835.225316873</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65808.19547374986</v>
+        <v>65808.19547374987</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900058</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>81217.80383555168</v>
+        <v>81217.80383555163</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="M2" t="n">
-        <v>82104.1769864284</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.1769864284</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508469</v>
+        <v>224565.975650847</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006241</v>
+        <v>12392.94474006226</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569334</v>
+        <v>7034.773253569658</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006241</v>
+        <v>12392.9447400621</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26430,31 +26430,31 @@
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>18330.12873445298</v>
+        <v>18330.12873445315</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.49926997319</v>
+        <v>23427.49926997312</v>
       </c>
       <c r="L4" t="n">
+        <v>23427.49926997314</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23427.49926997315</v>
+      </c>
+      <c r="N4" t="n">
         <v>23427.49926997313</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>23427.49926997312</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23427.49926997314</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23427.49926997313</v>
       </c>
       <c r="P4" t="n">
         <v>23427.49926997313</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1371455.137804242</v>
+        <v>-1371862.537342059</v>
       </c>
       <c r="C6" t="n">
-        <v>-119426.5076790174</v>
+        <v>-119426.5076790176</v>
       </c>
       <c r="D6" t="n">
         <v>-119426.5076790175</v>
       </c>
       <c r="E6" t="n">
-        <v>-361256.9716691415</v>
+        <v>-361291.709594577</v>
       </c>
       <c r="F6" t="n">
-        <v>-35844.50986178618</v>
+        <v>-35879.24778722186</v>
       </c>
       <c r="G6" t="n">
-        <v>-35844.50986178619</v>
+        <v>-35879.24778722187</v>
       </c>
       <c r="H6" t="n">
-        <v>-35844.50986178617</v>
+        <v>-35879.2477872219</v>
       </c>
       <c r="I6" t="n">
-        <v>-35844.50986178622</v>
+        <v>-35879.24778722186</v>
       </c>
       <c r="J6" t="n">
-        <v>-263540.0883144732</v>
+        <v>-263562.2476432455</v>
       </c>
       <c r="K6" t="n">
-        <v>-56880.3828775226</v>
+        <v>-56880.38287752241</v>
       </c>
       <c r="L6" t="n">
+        <v>-44487.43813746024</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-129542.466072972</v>
+      </c>
+      <c r="N6" t="n">
         <v>-44487.43813746016</v>
       </c>
-      <c r="M6" t="n">
-        <v>-129542.4660729719</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-44487.43813746018</v>
-      </c>
       <c r="O6" t="n">
-        <v>-51522.21139102948</v>
+        <v>-51522.21139102981</v>
       </c>
       <c r="P6" t="n">
-        <v>-56880.38287752256</v>
+        <v>-56880.38287752226</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.401455402293</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507802</v>
+        <v>15.4911809250776</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961667</v>
+        <v>8.793466566962072</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507802</v>
+        <v>15.49118092507763</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507802</v>
+        <v>15.4911809250776</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>236.7440853346169</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>47.39400912546341</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>115.1556714846986</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>12.13676166981668</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>71.5103689258778</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>114.3191079027592</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0.2434156620132057</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>60.02962753858469</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961685</v>
+        <v>8.79346656696209</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31610,10 +31610,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302374</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33895,13 +33895,13 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579301</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991504</v>
+        <v>89.83994982991545</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765966</v>
+        <v>273.126054976597</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860931</v>
+        <v>403.1354808860935</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680068</v>
+        <v>435.0658935680072</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568691</v>
+        <v>430.4195995568695</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730071</v>
+        <v>382.0553662730075</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735866</v>
+        <v>304.425239873587</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.19572386686</v>
+        <v>129.1957238668604</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
